--- a/export/export_files/Athlon Optics Midas EDC 3 MOA Red Dot Sight/Athlon Optics Midas EDC 3 MOA R.xlsx
+++ b/export/export_files/Athlon Optics Midas EDC 3 MOA Red Dot Sight/Athlon Optics Midas EDC 3 MOA R.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://cameralandny.com/shop/athlon-optics-midas-edc-red-dot-rmsc-footprint-3-moa-dot-403018/15f43040-49b8-013b-319b-00163e90e196?variation=3335740&amp;srsltid=AfmBOor2NCdcEUFm6O411ZzyHIsh0bmAcrJ97nL1a8nVh2R-KnR2Kmip</t>
+          <t>https://cameralandny.com/shop/athlon-optics-midas-edc-red-dot-rmsc-footprint-3-moa-dot-403018/15f43040-49b8-013b-319b-00163e90e196?variation=3335740&amp;srsltid=AfmBOopfU_v51-joZuCSELvBH3cq_RB5xqXy4EEBNiRN0EyxYCMvSjxs</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://redcarpettelescopes.com/products/athlon-optics-midas-edc-3-moa-red-dot-sight-403018?srsltid=AfmBOooH11kWCQSPk_pU09nxYRHUsBQAUNlBAsLjiffBPpC3I6j5oUzg</t>
+          <t>https://redcarpettelescopes.com/products/athlon-optics-midas-edc-3-moa-red-dot-sight-403018?srsltid=AfmBOop2Nx5ISA8NwK8n1kdk3NdufxzPUKalQdf6AeTCs_G2sllQaG0u</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://usa-binoculars.com/products/athlon-midas-edc-3-moa-red-dot-403018?srsltid=AfmBOorFqA0HpAHSGGOVYgQZg-BnVEC8FHQOw79mDM2_XTHkA5ghzb94</t>
+          <t>https://usa-binoculars.com/products/athlon-midas-edc-3-moa-red-dot-403018?srsltid=AfmBOoplRZVWS1UelxlXQhNvDhQ5OzkijRSGFr4UwshH5kHvczu9MKG6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,24 +484,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.sports-and-gadgets.com/products/athlon-optics-midas-edc-3-moa-red-dot-403018?srsltid=AfmBOorCLHeDFelR2qw7guPPbTkEEyV_SiruQJOQMrLDrL8UKIENBgnD</t>
+          <t>https://www.sports-and-gadgets.com/products/athlon-optics-midas-edc-3-moa-red-dot-403018?srsltid=AfmBOor5uAE1nsCg-YFRgat4gMfojOzOQ82VPWBCXAoE6m5cmCTl4Ho4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>179.99</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.jbtools.com/athlon-optics-midas-tsr1-m-red-dot-rmr-footprint-3moa-dot-403017/</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>287.49</t>
         </is>
       </c>
     </row>

--- a/export/export_files/Athlon Optics Midas EDC 3 MOA Red Dot Sight/Athlon Optics Midas EDC 3 MOA R.xlsx
+++ b/export/export_files/Athlon Optics Midas EDC 3 MOA Red Dot Sight/Athlon Optics Midas EDC 3 MOA R.xlsx
@@ -448,43 +448,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://cameralandny.com/shop/athlon-optics-midas-edc-red-dot-rmsc-footprint-3-moa-dot-403018/15f43040-49b8-013b-319b-00163e90e196?variation=3335740&amp;srsltid=AfmBOopfU_v51-joZuCSELvBH3cq_RB5xqXy4EEBNiRN0EyxYCMvSjxs</t>
+          <t>https://www.jbtools.com/athlon-optics-midas-edc-red-dot-rmsc-footprint-3-moa-dot-403018/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>169.99</t>
+          <t>124.99</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://redcarpettelescopes.com/products/athlon-optics-midas-edc-3-moa-red-dot-sight-403018?srsltid=AfmBOop2Nx5ISA8NwK8n1kdk3NdufxzPUKalQdf6AeTCs_G2sllQaG0u</t>
+          <t>https://mcmtactical.com/product/athlon-midas-edc-red-dot-scope-3-moa/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>169.99</t>
+          <t>173.39</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://usa-binoculars.com/products/athlon-midas-edc-3-moa-red-dot-403018?srsltid=AfmBOoplRZVWS1UelxlXQhNvDhQ5OzkijRSGFr4UwshH5kHvczu9MKG6</t>
+          <t>https://opticsforce.com/products/athlon-optics-midas-edc-red-dot?srsltid=AfmBOoojbSYSy6YpjQwjLpyUXaZt7RS9SSt67yRFY62jFm7PLQpR8_-D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>169.99</t>
+          <t>179.99</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.sports-and-gadgets.com/products/athlon-optics-midas-edc-3-moa-red-dot-403018?srsltid=AfmBOor5uAE1nsCg-YFRgat4gMfojOzOQ82VPWBCXAoE6m5cmCTl4Ho4</t>
+          <t>https://www.sports-and-gadgets.com/products/athlon-optics-midas-edc-3-moa-red-dot-403018?srsltid=AfmBOooGHOIrt0G1dzcyWJjA3J2ASVsfqN-_D_Dhp3zFG8zn47xPrI10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
